--- a/biology/Zoologie/Caluromys/Caluromys.xlsx
+++ b/biology/Zoologie/Caluromys/Caluromys.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les opossums laineux (Caluromys) forment un genre d'opossums d'Amérique (famille des Didelphidés).
 </t>
@@ -511,22 +523,127 @@
           <t>Liste des sous-genres et espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Anciennement classés dans ce genre, Caluromys irrupta (Sanborn, 1951) est désormais nommé Caluromysiops irrupta Sanborn, 1951 et Caluromys alstoni J.A. Allen, 1900 est nommé Micoureus alstoni (J.A. Allen, 1900)[1].
-MSW
-Selon Mammal Species of the World (version 3, 2005)  (21 mai 2010)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anciennement classés dans ce genre, Caluromys irrupta (Sanborn, 1951) est désormais nommé Caluromysiops irrupta Sanborn, 1951 et Caluromys alstoni J.A. Allen, 1900 est nommé Micoureus alstoni (J.A. Allen, 1900).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Caluromys</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Caluromys</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste des sous-genres et espèces</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>MSW</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Mammal Species of the World (version 3, 2005)  (21 mai 2010) :
 sous-genre Caluromys (Caluromys)
-Caluromys philander - Opossum laineux jaune[3] ou Opossum laineux à queue nue
+Caluromys philander - Opossum laineux jaune ou Opossum laineux à queue nue
 sous-genre Caluromys (Mallodelphys)
-Caluromys derbianus - Opossum laineux de Derby[4] ou Opossum laineux à oreilles pâles de Derby
-Caluromys lanatus - Opossum laineux[3] ou Opossum laineux à oreilles marron
-NCBI
-Selon NCBI  (21 mai 2010)[5] :
+Caluromys derbianus - Opossum laineux de Derby ou Opossum laineux à oreilles pâles de Derby
+Caluromys lanatus - Opossum laineux ou Opossum laineux à oreilles marron</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Caluromys</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Caluromys</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste des sous-genres et espèces</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NCBI</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (21 mai 2010) :
 Caluromys lanatus
-Caluromys philander
-ITIS
-Selon ITIS      (21 mai 2010)[6] :
+Caluromys philander</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Caluromys</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Caluromys</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste des sous-genres et espèces</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>ITIS</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon ITIS      (21 mai 2010) :
 sous-genre Caluromys (Caluromys) J. A. Allen, 1900
 sous-genre Caluromys (Mallodelphys) Thomas, 1920</t>
         </is>
